--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoziqi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoziqi/Documents/GitHub/Q5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244551A3-28AC-664F-B6DF-D5A515A6F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADAC15-189A-724B-9A5C-5D0F59AB2D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11240" yWindow="600" windowWidth="14280" windowHeight="15920" xr2:uid="{3E902149-2B49-274A-AD2B-02B7A6505EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>spot rate(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +127,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -193,7 +197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -297,7 +301,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.25</c:v>
@@ -427,7 +431,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CN"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -465,7 +469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1240707584"/>
@@ -556,7 +560,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CN"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -588,7 +592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CN"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1466569264"/>
@@ -630,7 +634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -667,7 +671,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CN"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1276,7 +1280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1575,7 +1579,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1624,8 +1628,8 @@
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
@@ -1639,9 +1643,9 @@
       <c r="B5" s="2">
         <v>2.25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1.8122383718729651</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:3">
